--- a/20200305_V4.xlsx
+++ b/20200305_V4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daanv\PycharmProjects\FlightDynamics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5928D8-B4B4-4DE8-96AE-66ED9C378F0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603ACCAA-81DF-4327-93EA-869AFD505664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5376" yWindow="3984" windowWidth="8748" windowHeight="8724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Luigi" sheetId="6" r:id="rId6"/>
     <sheet name="Sebas" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="79">
   <si>
     <t>Post-Flight Data Sheet AE3202</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>Tygron?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -3790,8 +3793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4777,9 +4780,8 @@
       <c r="A59">
         <v>1</v>
       </c>
-      <c r="B59" s="8">
-        <f>AVERAGE(Esmée!B59, Julia!B59,Julius!B59,Mart!B59,Luigi!B59,Sebas!B59)</f>
-        <v>3.4722222222222217E-2</v>
+      <c r="B59" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="C59" s="2">
         <f>AVERAGE(Esmée!C59, Julia!C59,Julius!C59,Mart!C59,Luigi!C59,Sebas!C59)</f>
